--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H2">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>281.3126414700049</v>
+        <v>373.6157816048894</v>
       </c>
       <c r="R2">
-        <v>2531.813773230044</v>
+        <v>3362.542034444005</v>
       </c>
       <c r="S2">
-        <v>0.1108086485242603</v>
+        <v>0.09665751450087119</v>
       </c>
       <c r="T2">
-        <v>0.1108086485242603</v>
+        <v>0.09665751450087121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H3">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>282.1433657849796</v>
+        <v>260.9224156654088</v>
       </c>
       <c r="R3">
-        <v>2539.290292064816</v>
+        <v>2348.30174098868</v>
       </c>
       <c r="S3">
-        <v>0.1111358696479096</v>
+        <v>0.06750280212320546</v>
       </c>
       <c r="T3">
-        <v>0.1111358696479096</v>
+        <v>0.06750280212320547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H4">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>199.3945151408869</v>
+        <v>743.0619413236321</v>
       </c>
       <c r="R4">
-        <v>1794.550636267982</v>
+        <v>6687.557471912689</v>
       </c>
       <c r="S4">
-        <v>0.07854121531992257</v>
+        <v>0.1922363130915306</v>
       </c>
       <c r="T4">
-        <v>0.07854121531992257</v>
+        <v>0.1922363130915307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H5">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>10.17748849584556</v>
+        <v>10.50048757237722</v>
       </c>
       <c r="R5">
-        <v>91.59739646261001</v>
+        <v>94.50438815139499</v>
       </c>
       <c r="S5">
-        <v>0.004008898212688747</v>
+        <v>0.002716563592237686</v>
       </c>
       <c r="T5">
-        <v>0.004008898212688747</v>
+        <v>0.002716563592237686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H6">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>306.6411530199817</v>
+        <v>770.9647417655727</v>
       </c>
       <c r="R6">
-        <v>2759.770377179836</v>
+        <v>6938.682675890154</v>
       </c>
       <c r="S6">
-        <v>0.1207855131234408</v>
+        <v>0.1994549999648383</v>
       </c>
       <c r="T6">
-        <v>0.1207855131234408</v>
+        <v>0.1994549999648383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J7">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>59.90375399971668</v>
+        <v>86.02970930965833</v>
       </c>
       <c r="R7">
-        <v>539.1337859974501</v>
+        <v>774.2673837869251</v>
       </c>
       <c r="S7">
-        <v>0.02359600332054797</v>
+        <v>0.02225660232922884</v>
       </c>
       <c r="T7">
-        <v>0.02359600332054797</v>
+        <v>0.02225660232922884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J8">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
-        <v>60.08065150686667</v>
+        <v>60.08065150686666</v>
       </c>
       <c r="R8">
-        <v>540.7258635618001</v>
+        <v>540.7258635618</v>
       </c>
       <c r="S8">
-        <v>0.02366568299648494</v>
+        <v>0.01554336494915009</v>
       </c>
       <c r="T8">
-        <v>0.02366568299648494</v>
+        <v>0.01554336494915009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J9">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>42.45980529519168</v>
+        <v>171.0993109995166</v>
       </c>
       <c r="R9">
-        <v>382.1382476567251</v>
+        <v>1539.89379899565</v>
       </c>
       <c r="S9">
-        <v>0.01672485678843937</v>
+        <v>0.04426481682059765</v>
       </c>
       <c r="T9">
-        <v>0.01672485678843937</v>
+        <v>0.04426481682059766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J10">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>2.167232030541667</v>
+        <v>2.417868671341667</v>
       </c>
       <c r="R10">
-        <v>19.505088274875</v>
+        <v>21.760818042075</v>
       </c>
       <c r="S10">
-        <v>0.0008536696079063923</v>
+        <v>0.000625522763405535</v>
       </c>
       <c r="T10">
-        <v>0.0008536696079063922</v>
+        <v>0.0006255227634055352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J11">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>65.29730089878335</v>
+        <v>177.5242799894083</v>
       </c>
       <c r="R11">
-        <v>587.6757080890501</v>
+        <v>1597.718519904675</v>
       </c>
       <c r="S11">
-        <v>0.02572051375674719</v>
+        <v>0.04592700981105557</v>
       </c>
       <c r="T11">
-        <v>0.02572051375674718</v>
+        <v>0.04592700981105558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H12">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>176.1608937055213</v>
+        <v>99.64835693077146</v>
       </c>
       <c r="R12">
-        <v>1585.448043349692</v>
+        <v>896.8352123769431</v>
       </c>
       <c r="S12">
-        <v>0.06938952495107134</v>
+        <v>0.0257798598968443</v>
       </c>
       <c r="T12">
-        <v>0.06938952495107134</v>
+        <v>0.02577985989684431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H13">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>176.6811018873653</v>
+        <v>69.59151965096089</v>
       </c>
       <c r="R13">
-        <v>1590.129916986288</v>
+        <v>626.323676858648</v>
       </c>
       <c r="S13">
-        <v>0.06959443421245461</v>
+        <v>0.01800390575287301</v>
       </c>
       <c r="T13">
-        <v>0.06959443421245461</v>
+        <v>0.01800390575287301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H14">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>124.8629133893474</v>
+        <v>198.1846195913482</v>
       </c>
       <c r="R14">
-        <v>1123.766220504126</v>
+        <v>1783.661576322134</v>
       </c>
       <c r="S14">
-        <v>0.04918332361878804</v>
+        <v>0.05127201174349345</v>
       </c>
       <c r="T14">
-        <v>0.04918332361878804</v>
+        <v>0.05127201174349347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H15">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>6.373248851303334</v>
+        <v>2.800621347055222</v>
       </c>
       <c r="R15">
-        <v>57.35923966173</v>
+        <v>25.205592123497</v>
       </c>
       <c r="S15">
-        <v>0.002510413638830436</v>
+        <v>0.0007245440685123803</v>
       </c>
       <c r="T15">
-        <v>0.002510413638830436</v>
+        <v>0.0007245440685123805</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H16">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>192.0218703312387</v>
+        <v>205.6266719743148</v>
       </c>
       <c r="R16">
-        <v>1728.196832981148</v>
+        <v>1850.640047768833</v>
       </c>
       <c r="S16">
-        <v>0.07563714103752445</v>
+        <v>0.05319733267890178</v>
       </c>
       <c r="T16">
-        <v>0.07563714103752445</v>
+        <v>0.05319733267890178</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H17">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>4.672543836077778</v>
+        <v>4.267233913776556</v>
       </c>
       <c r="R17">
-        <v>42.0528945247</v>
+        <v>38.405105223989</v>
       </c>
       <c r="S17">
-        <v>0.001840508357322959</v>
+        <v>0.001103968954758064</v>
       </c>
       <c r="T17">
-        <v>0.001840508357322959</v>
+        <v>0.001103968954758064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H18">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>4.68634199231111</v>
+        <v>2.980112285967111</v>
       </c>
       <c r="R18">
-        <v>42.1770779308</v>
+        <v>26.821010573704</v>
       </c>
       <c r="S18">
-        <v>0.00184594343139696</v>
+        <v>0.0007709798693667409</v>
       </c>
       <c r="T18">
-        <v>0.00184594343139696</v>
+        <v>0.000770979869366741</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H19">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>3.311900978927778</v>
+        <v>8.486844700275777</v>
       </c>
       <c r="R19">
-        <v>29.80710881035</v>
+        <v>76.38160230248199</v>
       </c>
       <c r="S19">
-        <v>0.001304553075195847</v>
+        <v>0.002195617409842338</v>
       </c>
       <c r="T19">
-        <v>0.001304553075195847</v>
+        <v>0.002195617409842338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H20">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>0.1690459443611111</v>
+        <v>0.1199307922367778</v>
       </c>
       <c r="R20">
-        <v>1.52141349925</v>
+        <v>1.079377130131</v>
       </c>
       <c r="S20">
-        <v>6.658695654514092E-05</v>
+        <v>3.1027094840406E-05</v>
       </c>
       <c r="T20">
-        <v>6.658695654514092E-05</v>
+        <v>3.1027094840406E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H21">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>5.093245088255555</v>
+        <v>8.805535136273223</v>
       </c>
       <c r="R21">
-        <v>45.8392057943</v>
+        <v>79.249816226459</v>
       </c>
       <c r="S21">
-        <v>0.002006221980936473</v>
+        <v>0.002278065279968145</v>
       </c>
       <c r="T21">
-        <v>0.002006221980936473</v>
+        <v>0.002278065279968145</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H22">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N22">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q22">
-        <v>139.4262431493285</v>
+        <v>105.320150836432</v>
       </c>
       <c r="R22">
-        <v>1254.836188343956</v>
+        <v>947.881357527888</v>
       </c>
       <c r="S22">
-        <v>0.05491979845434466</v>
+        <v>0.02724720021990941</v>
       </c>
       <c r="T22">
-        <v>0.05491979845434466</v>
+        <v>0.02724720021990941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H23">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q23">
-        <v>139.8379728523538</v>
+        <v>73.55253586035199</v>
       </c>
       <c r="R23">
-        <v>1258.541755671184</v>
+        <v>661.972822743168</v>
       </c>
       <c r="S23">
-        <v>0.05508197819753403</v>
+        <v>0.01902865363705713</v>
       </c>
       <c r="T23">
-        <v>0.05508197819753403</v>
+        <v>0.01902865363705713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H24">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N24">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q24">
-        <v>98.82537807544645</v>
+        <v>209.464909123616</v>
       </c>
       <c r="R24">
-        <v>889.4284026790181</v>
+        <v>1885.184182112544</v>
       </c>
       <c r="S24">
-        <v>0.038927175569559</v>
+        <v>0.05419031659762902</v>
       </c>
       <c r="T24">
-        <v>0.038927175569559</v>
+        <v>0.05419031659762902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H25">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N25">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q25">
-        <v>5.044241802487778</v>
+        <v>2.960027358128</v>
       </c>
       <c r="R25">
-        <v>45.39817622239</v>
+        <v>26.640246223152</v>
       </c>
       <c r="S25">
-        <v>0.001986919656516208</v>
+        <v>0.0007657837312498803</v>
       </c>
       <c r="T25">
-        <v>0.001986919656516208</v>
+        <v>0.0007657837312498803</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H26">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N26">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q26">
-        <v>151.9797465806849</v>
+        <v>217.330548895792</v>
       </c>
       <c r="R26">
-        <v>1367.817719226164</v>
+        <v>1955.974940062128</v>
       </c>
       <c r="S26">
-        <v>0.05986460556363196</v>
+        <v>0.05622522311863285</v>
       </c>
       <c r="T26">
-        <v>0.05986460556363196</v>
+        <v>0.05622522311863285</v>
       </c>
     </row>
   </sheetData>
